--- a/src/data/output/Capgemini_Environment_Data.xlsx
+++ b/src/data/output/Capgemini_Environment_Data.xlsx
@@ -1537,7 +1537,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46057.58333421243</v>
+        <v>46058.50342086222</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
